--- a/greedy_repair_t_e/energy_time_table1.xlsx
+++ b/greedy_repair_t_e/energy_time_table1.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.6818918918919</v>
+        <v>1525.695198412698</v>
       </c>
       <c r="C2" t="n">
-        <v>102.5724324324324</v>
+        <v>178.1399603174603</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.1071829072316</v>
+        <v>123519213.3555956</v>
       </c>
       <c r="C4" t="n">
-        <v>262.3521643535427</v>
+        <v>6761.686963887314</v>
       </c>
     </row>
   </sheetData>
